--- a/Makslip-2081-1st/Markslip-(10 EM).xlsx
+++ b/Makslip-2081-1st/Markslip-(10 EM).xlsx
@@ -271,7 +271,7 @@
     <t>नम्बर चढाइसकेपछि फाइल सेभ यो लिङ्कमा थिच्नुस । यसपछि यही फाइल अपलोड गर्नुहोस् ।</t>
   </si>
   <si>
-    <t>https://bit.ly/3SrTnrm</t>
+    <t>https://bit.ly/4dncgUa</t>
   </si>
 </sst>
 </file>
@@ -432,13 +432,13 @@
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
+        <a:lnRef idx="0">
           <a:schemeClr val="accent4"/>
         </a:lnRef>
         <a:fillRef idx="3">
           <a:schemeClr val="accent4"/>
         </a:fillRef>
-        <a:effectRef idx="2">
+        <a:effectRef idx="3">
           <a:schemeClr val="accent4"/>
         </a:effectRef>
         <a:fontRef idx="minor">
@@ -752,7 +752,7 @@
   <dimension ref="A1:BK33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="M38" sqref="M38"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
